--- a/Waterfall chart.xlsx
+++ b/Waterfall chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/shashwati_dacunha_austin_utexas_edu/Documents/RCL Code/TEA/Non-aqueous/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{97D819C2-9B4C-48A2-B33E-A96F1BF521DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B988AC-692C-4F69-999C-6050D3F86D28}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="8_{97D819C2-9B4C-48A2-B33E-A96F1BF521DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D138DA47-ADDA-40EA-A3B4-747A4834777C}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BDE6CFB9-7D30-4E96-8671-5B86BEA4C6ED}"/>
   </bookViews>
@@ -18,8 +18,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$12</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$2:$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Current cost </t>
   </si>
@@ -60,9 +58,6 @@
   </si>
   <si>
     <t>Electricity price reduction from 8.2 c/kWh to 5 c/kWh</t>
-  </si>
-  <si>
-    <t>Production scale from 2.5 t/day to 16 t/day</t>
   </si>
   <si>
     <t>Plant lifetime from 10 to 20 years</t>
@@ -100,10 +95,16 @@
     <t>Selectivity  from 70% to 95%</t>
   </si>
   <si>
-    <t>Current density from 200 to 400 mA/cm²</t>
+    <t>Current density from 200 to 500 mA/cm²</t>
   </si>
   <si>
-    <t>Liquid separation capex from $57K to $40K per 1000 mol/hr</t>
+    <t>Optimum is 1343 mA/cm2</t>
+  </si>
+  <si>
+    <t>Production scale from 2.5 t/day to 30 t/day</t>
+  </si>
+  <si>
+    <t>Liquid separation capex from $33K to $25K per 1000 mol/hr</t>
   </si>
 </sst>
 </file>
@@ -434,19 +435,12 @@
               </a:solidFill>
             </cx:spPr>
           </cx:dataPt>
-          <cx:dataPt idx="7">
+          <cx:dataPt idx="8">
             <cx:spPr>
               <a:solidFill>
                 <a:srgbClr val="8F275D">
                   <a:lumMod val="50000"/>
                 </a:srgbClr>
-              </a:solidFill>
-            </cx:spPr>
-          </cx:dataPt>
-          <cx:dataPt idx="8">
-            <cx:spPr>
-              <a:solidFill>
-                <a:srgbClr val="8F275D"/>
               </a:solidFill>
             </cx:spPr>
           </cx:dataPt>
@@ -1449,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4B87E6-9404-4916-B1B4-71DE45F26D73}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1463,7 +1457,7 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1474,127 +1468,130 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11">
-        <v>2.9276815137570038</v>
+        <v>2.983522122153627</v>
       </c>
       <c r="C2" s="6">
         <f>B2</f>
-        <v>2.9276815137570038</v>
+        <v>2.983522122153627</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>2.79619580205603</v>
+        <v>2.85618702972811</v>
       </c>
       <c r="C3" s="2">
         <f>B3-B2</f>
-        <v>-0.13148571170097378</v>
+        <v>-0.12733509242551699</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>2.4178057962524901</v>
+        <v>2.4786900035035799</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C11" si="0">B4-B3</f>
-        <v>-0.37839000580353988</v>
+        <v>-0.37749702622453007</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="9">
-        <v>2.2964619423835</v>
+        <v>2.3557180331056</v>
       </c>
       <c r="C5" s="10">
         <f t="shared" si="0"/>
-        <v>-0.12134385386899016</v>
+        <v>-0.12297197039797991</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8">
-        <v>2.1368834717520202</v>
+        <v>2.1667087492847501</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>-0.15957847063147979</v>
+        <v>-0.18900928382084992</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="10">
-        <v>2.0175166633217998</v>
+        <v>2.0551487454090398</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>-0.11936680843022041</v>
+        <v>-0.1115600038757103</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B8" s="9">
-        <v>0.95639885409009695</v>
+        <v>0.81097804919282002</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>-1.0611178092317028</v>
+        <v>-1.2441706962162198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="8">
-        <v>0.90235441631177904</v>
-      </c>
-      <c r="C9" s="2">
+        <v>0.73217959668782695</v>
+      </c>
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>-5.4044437778317911E-2</v>
+        <v>-7.8798452504993066E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8">
-        <v>0.807334709612613</v>
-      </c>
-      <c r="C10" s="2">
+        <v>0.68894404646517204</v>
+      </c>
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>-9.501970669916604E-2</v>
+        <v>-4.3235550222654906E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8">
-        <v>0.73331129113306703</v>
-      </c>
-      <c r="C11" s="2">
+        <v>0.64108454167808104</v>
+      </c>
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
-        <v>-7.4023418479545966E-2</v>
+        <v>-4.7859504787091001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
